--- a/fastqFiles/fastq_2905.xlsx
+++ b/fastqFiles/fastq_2905.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/fastqFiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C95060-EB7C-FD49-BA79-19FC5C6F064B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="220" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="43">
   <si>
     <t>libraryDate</t>
   </si>
@@ -34,12 +40,6 @@
     <t>fastqFileName</t>
   </si>
   <si>
-    <t>05.25.28</t>
-  </si>
-  <si>
-    <t>Retrofitted_2905</t>
-  </si>
-  <si>
     <t>sequence/run_2905_samples/2905_Brent_12_GTAC_36_TGGCATA_S34_R1_001.fastq.gz</t>
   </si>
   <si>
@@ -140,13 +140,22 @@
   </si>
   <si>
     <t>sequence/run_2905_samples/2905_Brent_11_GTAC_35_CGCTACA_S33_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t>05.25.18</t>
+  </si>
+  <si>
+    <t>H.BROWN</t>
+  </si>
+  <si>
+    <t>fullRNASEQ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +218,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -255,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -287,9 +304,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,6 +356,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,14 +549,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,12 +578,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -537,18 +592,18 @@
         <v>2905</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -557,18 +612,18 @@
         <v>2905</v>
       </c>
       <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -577,18 +632,18 @@
         <v>2905</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -597,18 +652,18 @@
         <v>2905</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -617,18 +672,18 @@
         <v>2905</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -637,18 +692,18 @@
         <v>2905</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -657,18 +712,18 @@
         <v>2905</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -677,18 +732,18 @@
         <v>2905</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -697,18 +752,18 @@
         <v>2905</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -717,18 +772,18 @@
         <v>2905</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -737,18 +792,18 @@
         <v>2905</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -757,18 +812,18 @@
         <v>2905</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -777,18 +832,18 @@
         <v>2905</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -797,18 +852,18 @@
         <v>2905</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -817,18 +872,18 @@
         <v>2905</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -837,18 +892,18 @@
         <v>2905</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -857,18 +912,18 @@
         <v>2905</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -877,18 +932,18 @@
         <v>2905</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -897,18 +952,18 @@
         <v>2905</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -917,18 +972,18 @@
         <v>2905</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -937,18 +992,18 @@
         <v>2905</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -957,18 +1012,18 @@
         <v>2905</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C24">
         <v>23</v>
@@ -977,18 +1032,18 @@
         <v>2905</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C25">
         <v>24</v>
@@ -997,18 +1052,18 @@
         <v>2905</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C26">
         <v>25</v>
@@ -1017,18 +1072,18 @@
         <v>2905</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C27">
         <v>26</v>
@@ -1037,18 +1092,18 @@
         <v>2905</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C28">
         <v>27</v>
@@ -1057,18 +1112,18 @@
         <v>2905</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -1077,18 +1132,18 @@
         <v>2905</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C30">
         <v>29</v>
@@ -1097,18 +1152,18 @@
         <v>2905</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -1117,18 +1172,18 @@
         <v>2905</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C32">
         <v>31</v>
@@ -1137,18 +1192,18 @@
         <v>2905</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C33">
         <v>32</v>
@@ -1157,18 +1212,18 @@
         <v>2905</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C34">
         <v>33</v>
@@ -1177,18 +1232,18 @@
         <v>2905</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C35">
         <v>34</v>
@@ -1197,10 +1252,10 @@
         <v>2905</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_2905.xlsx
+++ b/fastqFiles/fastq_2905.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="50">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -40,6 +40,21 @@
     <t xml:space="preserve">fastqFileName</t>
   </si>
   <si>
+    <t xml:space="preserve">MANUAL_AUDIT_20200520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAIL_REASON_20200520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANUAL_AUDIT_20207230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAIL_REASON_20200723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTES</t>
+  </si>
+  <si>
     <t xml:space="preserve">05.25.18</t>
   </si>
   <si>
@@ -121,10 +136,16 @@
     <t xml:space="preserve">2905_Brent_1_GTAC_25_CGTCGCT_S23_R1_001.fastq.gz</t>
   </si>
   <si>
+    <t xml:space="preserve">Fail - borderline expression of unexpected marker was deemed unnacceptable</t>
+  </si>
+  <si>
     <t xml:space="preserve">2905_Brent_2_GTAC_26_TCAACTG_S24_R1_001.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">2905_Brent_3_GTAC_27_TGTTTGT_S25_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail - unexplained pattern of reads that don't match the other "good" replicates</t>
   </si>
   <si>
     <t xml:space="preserve">2905_Brent_4_GTAC_28_TACATGG_S26_R1_001.fastq.gz</t>
@@ -184,9 +205,8 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Cambria"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -239,13 +259,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -265,15 +289,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S23" activeCellId="0" sqref="S23"/>
+      <selection pane="topLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -295,13 +319,28 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
@@ -310,18 +349,18 @@
         <v>2905</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2</v>
@@ -330,18 +369,21 @@
         <v>2905</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
@@ -350,18 +392,21 @@
         <v>2905</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>4</v>
@@ -370,18 +415,21 @@
         <v>2905</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>5</v>
@@ -390,18 +438,21 @@
         <v>2905</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>6</v>
@@ -410,18 +461,21 @@
         <v>2905</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>7</v>
@@ -430,18 +484,21 @@
         <v>2905</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>8</v>
@@ -450,18 +507,21 @@
         <v>2905</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>9</v>
@@ -470,18 +530,21 @@
         <v>2905</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>10</v>
@@ -490,18 +553,21 @@
         <v>2905</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>11</v>
@@ -510,18 +576,21 @@
         <v>2905</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>12</v>
@@ -530,18 +599,21 @@
         <v>2905</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>13</v>
@@ -550,18 +622,21 @@
         <v>2905</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>14</v>
@@ -570,18 +645,21 @@
         <v>2905</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>15</v>
@@ -590,18 +668,21 @@
         <v>2905</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>16</v>
@@ -610,18 +691,21 @@
         <v>2905</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>17</v>
@@ -630,18 +714,21 @@
         <v>2905</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>18</v>
@@ -650,18 +737,21 @@
         <v>2905</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>19</v>
@@ -670,18 +760,21 @@
         <v>2905</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>20</v>
@@ -690,18 +783,21 @@
         <v>2905</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>21</v>
@@ -710,18 +806,21 @@
         <v>2905</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>22</v>
@@ -730,18 +829,21 @@
         <v>2905</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>23</v>
@@ -750,18 +852,21 @@
         <v>2905</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>24</v>
@@ -770,18 +875,27 @@
         <v>2905</v>
       </c>
       <c r="E25" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F25" s="0" t="s">
-        <v>32</v>
+      <c r="K25" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>25</v>
@@ -790,18 +904,24 @@
         <v>2905</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>39</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>26</v>
@@ -810,18 +930,33 @@
         <v>2905</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>256</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>27</v>
@@ -830,18 +965,21 @@
         <v>2905</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>28</v>
@@ -850,18 +988,24 @@
         <v>2905</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>29</v>
@@ -870,18 +1014,21 @@
         <v>2905</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>30</v>
@@ -890,18 +1037,24 @@
         <v>2905</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>31</v>
@@ -910,18 +1063,21 @@
         <v>2905</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>32</v>
@@ -930,18 +1086,21 @@
         <v>2905</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>33</v>
@@ -950,18 +1109,24 @@
         <v>2905</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>34</v>
@@ -970,15 +1135,18 @@
         <v>2905</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/fastqFiles/fastq_2905.xlsx
+++ b/fastqFiles/fastq_2905.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="51">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -133,13 +133,22 @@
     <t xml:space="preserve">Fail - borderline expression of unexpected marker was deemed unnacceptable</t>
   </si>
   <si>
+    <t xml:space="preserve">[8]</t>
+  </si>
+  <si>
     <t xml:space="preserve">2905_Brent_2_GTAC_26_TCAACTG_S24_R1_001.fastq.gz</t>
   </si>
   <si>
+    <t xml:space="preserve">[4]</t>
+  </si>
+  <si>
     <t xml:space="preserve">2905_Brent_3_GTAC_27_TGTTTGT_S25_R1_001.fastq.gz</t>
   </si>
   <si>
     <t xml:space="preserve">Fail - unexplained pattern of reads that don't match the other "good" replicates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[4,256]</t>
   </si>
   <si>
     <t xml:space="preserve">2905_Brent_4_GTAC_28_TACATGG_S26_R1_001.fastq.gz</t>
@@ -264,12 +273,14 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U10" activeCellId="0" sqref="U10"/>
+      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="52.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -786,8 +797,8 @@
       <c r="H25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I25" s="0" t="n">
-        <v>8</v>
+      <c r="I25" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -807,13 +818,13 @@
         <v>11</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I26" s="0" t="n">
-        <v>4</v>
+      <c r="I26" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -833,16 +844,16 @@
         <v>11</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I27" s="0" t="n">
-        <v>4256</v>
+      <c r="I27" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -862,7 +873,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -882,13 +893,13 @@
         <v>11</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I29" s="0" t="n">
-        <v>4</v>
+      <c r="I29" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -908,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -928,7 +939,7 @@
         <v>11</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -948,7 +959,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -968,7 +979,7 @@
         <v>11</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -988,7 +999,7 @@
         <v>11</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1008,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/fastqFiles/fastq_2905.xlsx
+++ b/fastqFiles/fastq_2905.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="52">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t xml:space="preserve">2905_Brent_10_GTAC_34_AATACGC_S32_R1_001.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[512]</t>
   </si>
   <si>
     <t xml:space="preserve">2905_Brent_11_GTAC_35_CGCTACA_S33_R1_001.fastq.gz</t>
@@ -273,7 +276,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I30" activeCellId="0" sqref="I30"/>
+      <selection pane="topLeft" activeCell="F34" activeCellId="0" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1001,6 +1004,12 @@
       <c r="F34" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="H34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -1019,7 +1028,7 @@
         <v>11</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
